--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144631.898551882</v>
+        <v>1142154.745882789</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673444</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>248.8014812238024</v>
+        <v>167.7617820786558</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>13.72144311942215</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>75.96449725254992</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>208.7099749169708</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>48.48304055307481</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>12.41970093279767</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>13.89072837997146</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>233.3691072915341</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>68.85005436466979</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>73.89415519534859</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>364.8910672526215</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323805</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>12.71129699687163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035337</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034046</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>111.2845028724169</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>79.45438044343729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.442315526188</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.9320997728191</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.2829932848696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>193.3172855409476</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>68.07731664460518</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>92.20984583428708</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161911274</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819367</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>93.40444476188287</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>90.14863908058187</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>13.03790159951777</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>152.3771414330735</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>220.1605139812048</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.166970474967</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056625111</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>105.8460632289445</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>68.17501931583801</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465683</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>140.7944235414533</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797738</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1802.273730074953</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C2" t="n">
-        <v>1433.311213134542</v>
+        <v>709.7270322910251</v>
       </c>
       <c r="D2" t="n">
-        <v>1433.311213134542</v>
+        <v>709.7270322910251</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139075</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>2188.873570139075</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193025</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507741</v>
+        <v>638.3296170496764</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.7113734044287</v>
+        <v>932.6070201144361</v>
       </c>
       <c r="C4" t="n">
-        <v>662.7751904765219</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4513,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1457.130898183463</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1234.152417378199</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1234.152417378199</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1234.152417378199</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1234.152417378199</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1234.152417378199</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1013.359838234668</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559526</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1145.385526619114</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D5" t="n">
-        <v>1145.385526619114</v>
+        <v>1251.839541207228</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>866.0512886089841</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>455.0653838193766</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1914.749395631121</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1723.063511457948</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1501.296896027474</v>
       </c>
       <c r="U7" t="n">
-        <v>1409.980552474725</v>
+        <v>1501.296896027474</v>
       </c>
       <c r="V7" t="n">
-        <v>1155.296064268838</v>
+        <v>1246.612407821587</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318776</v>
+        <v>1246.612407821587</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338602</v>
+        <v>1246.612407821587</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.0967641903301</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1053.237939387931</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>694.9722407811807</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>309.1839881829365</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>302.238487433733</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.616325937273</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093661</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>598.5635035970304</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>450.6504100146373</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>303.7604625167269</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0576258914458</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0576258914458</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1852.65398728511</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1563.551120410754</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1563.551120410754</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>1274.133950373793</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767513</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1974.152972802153</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="C11" t="n">
-        <v>1605.190455861742</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861742</v>
+        <v>1176.993134082599</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>808.41629847389</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469167</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420305</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301222</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878106</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176542</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687096</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856277</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882234</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234584</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234584</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750363</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382972</v>
+        <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039401</v>
+        <v>3038.232418260477</v>
       </c>
       <c r="W11" t="n">
-        <v>3124.357903103167</v>
+        <v>2685.463762990363</v>
       </c>
       <c r="X11" t="n">
-        <v>2750.892144842087</v>
+        <v>2311.998004729283</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.752812866275</v>
+        <v>1921.858672753471</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550304</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469167</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792124</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376494</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649584</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908847</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259913</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125662</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.703173037794</v>
+        <v>782.9882200193191</v>
       </c>
       <c r="C13" t="n">
-        <v>925.7669901098875</v>
+        <v>614.0520370914122</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975517</v>
+        <v>463.9353976790765</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151586</v>
+        <v>316.0223040966832</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172482</v>
+        <v>169.1323565987729</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>169.1323565987729</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>169.1323565987729</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600394</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457696</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888905</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551103</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551103</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991391</v>
+        <v>1555.079429160184</v>
       </c>
       <c r="V13" t="n">
-        <v>1866.818336991391</v>
+        <v>1300.394940954297</v>
       </c>
       <c r="W13" t="n">
-        <v>1577.40116695443</v>
+        <v>1010.977770917336</v>
       </c>
       <c r="X13" t="n">
-        <v>1497.144217011564</v>
+        <v>782.9882200193191</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.351637868034</v>
+        <v>782.9882200193191</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608048</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072594</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.6674866466266</v>
+        <v>551.5336166979502</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187197</v>
+        <v>382.5974337700433</v>
       </c>
       <c r="D16" t="n">
-        <v>387.6146643063839</v>
+        <v>382.5974337700433</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239908</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608048</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149097</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178206</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.766099972319</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935358</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373409</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y16" t="n">
-        <v>888.3159514768663</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356199</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356199</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232841</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408911</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1332.17202130939</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400708</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121639</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121639</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121639</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270444</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138406</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703105</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597622</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474263</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474263</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2106.00331409304</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.00331409304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887153</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850192</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952175</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808645</v>
       </c>
     </row>
     <row r="29">
@@ -6455,40 +6455,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>614.6217844681057</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>614.6217844681057</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556314</v>
+        <v>464.5051450557701</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9629114732384</v>
+        <v>464.5051450557702</v>
       </c>
       <c r="F31" t="n">
-        <v>189.0729639753281</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="G31" t="n">
-        <v>189.0729639753281</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>796.2702492983454</v>
       </c>
     </row>
     <row r="32">
@@ -6692,49 +6692,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504993</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504993</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6871,22 +6871,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854707</v>
@@ -6895,13 +6895,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.317008092047</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3274571940294</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5348780504993</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.6725264685176</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406107</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282751</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458821</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038371</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797772</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987573</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380882</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>741.8431516380882</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>591.7265122257525</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>591.7265122257525</v>
       </c>
       <c r="F40" t="n">
-        <v>411.963121559762</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746415</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279802</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683279</v>
       </c>
     </row>
     <row r="41">
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>948.55052085119</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797744</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908935</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908935</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908935</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17.03930281964028</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114115</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>336.5296717205414</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146351</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>174.9152966216975</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>146.2552749455999</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729258</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.89988040911815</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.3016600672252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194171</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>58.82035778288039</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219421</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>218.107157744639</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75.03697526434075</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067401</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>127.2568112467064</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>127.2568112467061</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>99.76050189075451</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24977,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>61.40075786968251</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>66.36248435538619</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.66500970697032</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610372</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182091</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>39.57498479398674</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.11969353038603</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>77.79022981064145</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>121.5862749664501</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875190.0444586705</v>
+        <v>875190.0444586712</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952297.8911498712</v>
+        <v>952297.8911498716</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957546.4141109424</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.4141109424</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876632</v>
+        <v>423807.2415876633</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918679</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26338,16 +26338,16 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26366,19 +26366,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185141</v>
+        <v>143114.1392185155</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051392</v>
+        <v>166521.3471051385</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605454</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115287</v>
+        <v>37377.32855115324</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848945</v>
+        <v>43782.40655848928</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312018</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
       </c>
-      <c r="D4" t="n">
-        <v>89134.1790931202</v>
-      </c>
       <c r="E4" t="n">
-        <v>9848.023364462853</v>
+        <v>9848.023364462855</v>
       </c>
       <c r="F4" t="n">
-        <v>9940.611700543544</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26448,10 +26448,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214697</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873520.9487510229</v>
+        <v>-873520.948751023</v>
       </c>
       <c r="C6" t="n">
-        <v>71592.15640534359</v>
+        <v>71592.15640534375</v>
       </c>
       <c r="D6" t="n">
-        <v>275030.8980174497</v>
+        <v>275030.8980174498</v>
       </c>
       <c r="E6" t="n">
-        <v>184751.3568425392</v>
+        <v>184541.3925986931</v>
       </c>
       <c r="F6" t="n">
-        <v>184936.7813723467</v>
+        <v>184890.8763767817</v>
       </c>
       <c r="G6" t="n">
-        <v>341872.3844404984</v>
+        <v>341837.6465150632</v>
       </c>
       <c r="H6" t="n">
-        <v>353039.6206760777</v>
+        <v>353004.8827506419</v>
       </c>
       <c r="I6" t="n">
-        <v>353039.6206760776</v>
+        <v>353004.8827506419</v>
       </c>
       <c r="J6" t="n">
-        <v>185434.4428660949</v>
+        <v>185399.7049406594</v>
       </c>
       <c r="K6" t="n">
-        <v>303929.5279700233</v>
+        <v>303894.7900445876</v>
       </c>
       <c r="L6" t="n">
-        <v>353039.6206760777</v>
+        <v>353004.882750642</v>
       </c>
       <c r="M6" t="n">
-        <v>315662.2921249245</v>
+        <v>315627.5541994887</v>
       </c>
       <c r="N6" t="n">
-        <v>309257.2141175882</v>
+        <v>309222.4761921527</v>
       </c>
       <c r="O6" t="n">
-        <v>350016.3226988529</v>
+        <v>349981.5847734174</v>
       </c>
       <c r="P6" t="n">
-        <v>353039.6206760777</v>
+        <v>353004.882750642</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808646</v>
+        <v>981.3883278086475</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012562</v>
+        <v>122.3935669012574</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218308</v>
+        <v>145.8707812218302</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063533</v>
+        <v>149.9868724063548</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063533</v>
+        <v>149.9868724063548</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063533</v>
+        <v>149.9868724063548</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1288888484594</v>
+        <v>214.168587993606</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>153.5253779792057</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>118.6979631091876</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>173.220395155291</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>362.4386851003786</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>76.51245173724966</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>272.3211098256414</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>177.5526183619193</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>27.5023660451683</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>145.6547940808206</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485643</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508985</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726049</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216962</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857414</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898376</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294397</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615128</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895581</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356978</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596466</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783038</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202549</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256409</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845322</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147131</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431802</v>
+        <v>179.5642660017245</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896223</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.4296328569758</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236082</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691782</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509172</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263705</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.499378897309</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050056</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570598</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929607</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826892</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396509</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>660.0558748011979</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>431.9220107744075</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>207.939011051685</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>211.5147800288493</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578699</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480961</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276243</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584687</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932467</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077529</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062433</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151086</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156564</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116371</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458959</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457667</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625139</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313799</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987357</v>
+        <v>36.96802155728008</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752921</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701818</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112333</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765376</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998335</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977673</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>517.9218408791796</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>293.3676309945333</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.10138438501833</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409638</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>77.5403726145191</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
